--- a/docs/jaj.xlsx
+++ b/docs/jaj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\04_D3 dan Alih Jenjang\21umm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A1E859D-CB18-48B5-9B12-116A8932821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{434D72F3-CA69-4624-B8E8-5B90FC492272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="164">
   <si>
     <t>DAFTAR PENDAFTAR</t>
   </si>
@@ -362,6 +362,78 @@
   </si>
   <si>
     <t>1300 Kwh</t>
+  </si>
+  <si>
+    <t>DWIKI DYAH RETNO KINANTI</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Jakarta Timur</t>
+  </si>
+  <si>
+    <t>10-09-1999</t>
+  </si>
+  <si>
+    <t>SMU/MA IPA</t>
+  </si>
+  <si>
+    <t>Komplek Vila Inti Persada Blok A3 No.8</t>
+  </si>
+  <si>
+    <t>Pamulang Timur</t>
+  </si>
+  <si>
+    <t>Kec. Pamulang</t>
+  </si>
+  <si>
+    <t>Kota tangerang Selatan</t>
+  </si>
+  <si>
+    <t>082111015651</t>
+  </si>
+  <si>
+    <t>jungminjooo@gmail.com</t>
+  </si>
+  <si>
+    <t>3674065009990007</t>
+  </si>
+  <si>
+    <t>Lain-Lain</t>
+  </si>
+  <si>
+    <t>SMAN 8 KOTA TANGERANG SELATAN</t>
+  </si>
+  <si>
+    <t>3674061506670026</t>
+  </si>
+  <si>
+    <t>SUKIRNO</t>
+  </si>
+  <si>
+    <t>PEGAWAI NEGERI</t>
+  </si>
+  <si>
+    <t>TAMAT SMTA</t>
+  </si>
+  <si>
+    <t>3674065309690012</t>
+  </si>
+  <si>
+    <t>DWIYATI</t>
+  </si>
+  <si>
+    <t>KARYAWAN SWASTA</t>
+  </si>
+  <si>
+    <t>Komplek Vila Inti Persada Blok A3 No.8 RT001 RW019</t>
+  </si>
+  <si>
+    <t>08128475344</t>
+  </si>
+  <si>
+    <t>19-07-2021</t>
   </si>
   <si>
     <t>UNTUNG BOY S</t>
@@ -455,15 +527,18 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -827,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW5"/>
+  <dimension ref="A1:BW6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1346,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>21310363</v>
+        <v>21310332</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>114</v>
@@ -1361,7 +1436,7 @@
         <v>80</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>82</v>
@@ -1373,172 +1448,172 @@
         <v>83</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="Q5" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="R5" s="2">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="S5" s="2">
-        <v>7.4</v>
+        <v>78</v>
       </c>
       <c r="T5" s="2">
-        <v>7.8</v>
+        <v>82</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AF5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AL5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD5" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="BE5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="BF5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AN5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD5" s="2" t="s">
+      <c r="BG5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BE5" s="2" t="s">
+      <c r="BH5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BF5" s="2" t="s">
+      <c r="BI5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BG5" s="2" t="s">
+      <c r="BJ5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BH5" s="2" t="s">
+      <c r="BK5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="BI5" s="2" t="s">
+      <c r="BM5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BJ5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK5" s="2" t="s">
+      <c r="BP5" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="BL5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BO5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BP5" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="BQ5" s="2" t="s">
         <v>112</v>
@@ -1547,18 +1622,239 @@
         <v>113</v>
       </c>
       <c r="BS5" s="2">
+        <v>81</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>60</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>4950000</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>4651000</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>21310363</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2014</v>
+      </c>
+      <c r="R6" s="2">
+        <v>8</v>
+      </c>
+      <c r="S6" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="T6" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BK6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BQ6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BR6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS6" s="2">
         <v>24</v>
       </c>
-      <c r="BT5" s="2">
+      <c r="BT6" s="2">
         <v>24</v>
       </c>
-      <c r="BU5" s="2">
+      <c r="BU6" s="2">
         <v>4000000</v>
       </c>
-      <c r="BV5" s="2">
+      <c r="BV6" s="2">
         <v>3000000</v>
       </c>
-      <c r="BW5" s="2">
+      <c r="BW6" s="2">
         <v>4</v>
       </c>
     </row>

--- a/docs/jaj.xlsx
+++ b/docs/jaj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\04_D3 dan Alih Jenjang\21umm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{434D72F3-CA69-4624-B8E8-5B90FC492272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E32CE6-BAE1-4557-8436-E9403A48F9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="207">
   <si>
     <t>DAFTAR PENDAFTAR</t>
   </si>
@@ -512,6 +512,135 @@
   </si>
   <si>
     <t>04-07-2021</t>
+  </si>
+  <si>
+    <t>ERICKA DIAN SAPHIRA</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>04-09-1999</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Jl H Baping D2 No 57</t>
+  </si>
+  <si>
+    <t>Jl. Ki uju Gg TB Chaerudin no. 7, Serang, Banten.</t>
+  </si>
+  <si>
+    <t>Ciracas</t>
+  </si>
+  <si>
+    <t>Kec. Ciracas</t>
+  </si>
+  <si>
+    <t>Kota Jakarta Timur</t>
+  </si>
+  <si>
+    <t>85694183938</t>
+  </si>
+  <si>
+    <t>erickadacosta95@gmail.com</t>
+  </si>
+  <si>
+    <t>3175094409990004</t>
+  </si>
+  <si>
+    <t>Alumni</t>
+  </si>
+  <si>
+    <t>MAN 6 JAKARTA</t>
+  </si>
+  <si>
+    <t>Prop. D.K.I. Jakarta</t>
+  </si>
+  <si>
+    <t>R M DIAN ANATOMMY AGOESTIAN</t>
+  </si>
+  <si>
+    <t>LAIN-LAIN</t>
+  </si>
+  <si>
+    <t>3175096408740008</t>
+  </si>
+  <si>
+    <t>RATU SIELVY RINTA MARIA</t>
+  </si>
+  <si>
+    <t>Jl. Ki Uju Gg TB Chaerudin no. 7, Serang, Banten.</t>
+  </si>
+  <si>
+    <t>Kota Serang</t>
+  </si>
+  <si>
+    <t>081285398426</t>
+  </si>
+  <si>
+    <t>23-07-2021</t>
+  </si>
+  <si>
+    <t>900 Kwh</t>
+  </si>
+  <si>
+    <t>NISRINA NABILA BUDIYANI</t>
+  </si>
+  <si>
+    <t>27-07-2000</t>
+  </si>
+  <si>
+    <t>Perumahan Puri Cendana RPC No 69</t>
+  </si>
+  <si>
+    <t>Sumber Jaya</t>
+  </si>
+  <si>
+    <t>Kec. Tambun Selatan</t>
+  </si>
+  <si>
+    <t>Kab. Bekasi</t>
+  </si>
+  <si>
+    <t>082260366098</t>
+  </si>
+  <si>
+    <t>nisrinanabila00@gmail.com</t>
+  </si>
+  <si>
+    <t>3216066707000022</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>SMAN 2 TAMBUN SELATAN</t>
+  </si>
+  <si>
+    <t>Prop. Jawa Barat</t>
+  </si>
+  <si>
+    <t>3216062507690012</t>
+  </si>
+  <si>
+    <t>BUDI PURWANTO</t>
+  </si>
+  <si>
+    <t>3216064211690012</t>
+  </si>
+  <si>
+    <t>WAHYU HANDAYANI</t>
+  </si>
+  <si>
+    <t>SARJANA MUDA</t>
+  </si>
+  <si>
+    <t>085888466336</t>
+  </si>
+  <si>
+    <t>22-07-2021</t>
   </si>
 </sst>
 </file>
@@ -527,18 +656,15 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -902,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW6"/>
+  <dimension ref="A1:BW8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1858,6 +1984,442 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>21310511</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="R7" s="2">
+        <v>45</v>
+      </c>
+      <c r="S7" s="2">
+        <v>70</v>
+      </c>
+      <c r="T7" s="2">
+        <v>86</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BK7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BO7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BP7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BQ7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BR7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>60</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>28</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>21310593</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2018</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BL8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BP8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BR8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>126</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>45</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>11500000</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="J1:N1"/>

--- a/docs/jaj.xlsx
+++ b/docs/jaj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\04_D3 dan Alih Jenjang\21umm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E32CE6-BAE1-4557-8436-E9403A48F9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97CC4DE2-FA72-4D5C-BD4D-191735C8BD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="285">
   <si>
     <t>DAFTAR PENDAFTAR</t>
   </si>
@@ -253,33 +253,123 @@
     <t>Jumlah anak dalam tanggungan</t>
   </si>
   <si>
+    <t>INDAH PERMATASARI</t>
+  </si>
+  <si>
+    <t>Jalur Alih Jenjang (S1)</t>
+  </si>
+  <si>
+    <t>Gelombang - I</t>
+  </si>
+  <si>
+    <t>UMK</t>
+  </si>
+  <si>
+    <t>AKUNTANSI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LAB008 - Labkom PUSDAINFO</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>ISLAM</t>
+  </si>
+  <si>
+    <t>Serang</t>
+  </si>
+  <si>
+    <t>09-07-1998</t>
+  </si>
+  <si>
+    <t>SMKN</t>
+  </si>
+  <si>
+    <t>SMK Ekonomi</t>
+  </si>
+  <si>
+    <t>kp. Laban Desa Laban Rt/03 Rw/04 Kec. Tirtayasa</t>
+  </si>
+  <si>
+    <t>kp. laban desa laban Rt/03 Rw/04 kec. Tirtaysa</t>
+  </si>
+  <si>
+    <t>laban</t>
+  </si>
+  <si>
+    <t>Kec. Tirtayasa</t>
+  </si>
+  <si>
+    <t>Kab. Serang</t>
+  </si>
+  <si>
+    <t>087773096233</t>
+  </si>
+  <si>
+    <t>indahdidie98@gmail.com</t>
+  </si>
+  <si>
+    <t>3604134907980002</t>
+  </si>
+  <si>
+    <t>Alumni</t>
+  </si>
+  <si>
+    <t>SMKN 1 KOTA SERANG</t>
+  </si>
+  <si>
+    <t>Kota Serang</t>
+  </si>
+  <si>
+    <t>Prop. Banten</t>
+  </si>
+  <si>
+    <t>3604130103780001</t>
+  </si>
+  <si>
+    <t>SAEPUDIN</t>
+  </si>
+  <si>
+    <t>KARYAWAN SWASTA</t>
+  </si>
+  <si>
+    <t>TAMAT SD</t>
+  </si>
+  <si>
+    <t>3604134505780002</t>
+  </si>
+  <si>
+    <t>ASMIRAH</t>
+  </si>
+  <si>
+    <t>LAIN-LAIN</t>
+  </si>
+  <si>
+    <t>kp. laban desa laban Rt/03 Rw/04 kec. Tirtayasa</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>Rumah Orang Tua</t>
+  </si>
+  <si>
+    <t>450 Kwh</t>
+  </si>
+  <si>
     <t>RADEN FAUZAN RAMADHAN IBRAHIM</t>
   </si>
   <si>
-    <t>Jalur Alih Jenjang (S1)</t>
-  </si>
-  <si>
-    <t>Gelombang - I</t>
-  </si>
-  <si>
-    <t>UMK</t>
-  </si>
-  <si>
     <t>MANAJEMEN</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>LAB008 - Labkom PUSDAINFO</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
-    <t>ISLAM</t>
-  </si>
-  <si>
     <t>Tangerang</t>
   </si>
   <si>
@@ -328,9 +418,6 @@
     <t>SMAN 1 KABUPATEN TANGERANG</t>
   </si>
   <si>
-    <t>Prop. Banten</t>
-  </si>
-  <si>
     <t>3603031107680002</t>
   </si>
   <si>
@@ -358,18 +445,78 @@
     <t>16-06-2021</t>
   </si>
   <si>
-    <t>Rumah Orang Tua</t>
-  </si>
-  <si>
     <t>1300 Kwh</t>
   </si>
   <si>
+    <t>WENDI WULAN SARI</t>
+  </si>
+  <si>
+    <t>Pandeglang</t>
+  </si>
+  <si>
+    <t>15-07-2004</t>
+  </si>
+  <si>
+    <t>Kp. Parakan RT. 001/RW. 004 Desa Banyumas 42274</t>
+  </si>
+  <si>
+    <t>Banyumas</t>
+  </si>
+  <si>
+    <t>Kec. Bojong</t>
+  </si>
+  <si>
+    <t>Kab. Pandeglang</t>
+  </si>
+  <si>
+    <t>087896198412</t>
+  </si>
+  <si>
+    <t>wwwendiws@gmail.com</t>
+  </si>
+  <si>
+    <t>3601105507040002</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>SMKS SORE PANGKALPINANG</t>
+  </si>
+  <si>
+    <t>Kota Pangkalpinang</t>
+  </si>
+  <si>
+    <t>Prop. Bangka Belitung</t>
+  </si>
+  <si>
+    <t>3601101311710001</t>
+  </si>
+  <si>
+    <t>KHOIRUL ANWAR</t>
+  </si>
+  <si>
+    <t>3601106007840001</t>
+  </si>
+  <si>
+    <t>SITI AISAH</t>
+  </si>
+  <si>
+    <t>TAMAT SMTP</t>
+  </si>
+  <si>
+    <t>Kp. Parakan RT.01/04 Kec. Bojong, Kab. Pandeglang</t>
+  </si>
+  <si>
+    <t>083157924434</t>
+  </si>
+  <si>
+    <t>26-07-2021</t>
+  </si>
+  <si>
     <t>DWIKI DYAH RETNO KINANTI</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Jakarta Timur</t>
   </si>
   <si>
@@ -424,9 +571,6 @@
     <t>DWIYATI</t>
   </si>
   <si>
-    <t>KARYAWAN SWASTA</t>
-  </si>
-  <si>
     <t>Komplek Vila Inti Persada Blok A3 No.8 RT001 RW019</t>
   </si>
   <si>
@@ -439,9 +583,6 @@
     <t>UNTUNG BOY S</t>
   </si>
   <si>
-    <t>AKUNTANSI</t>
-  </si>
-  <si>
     <t>PROTESTAN</t>
   </si>
   <si>
@@ -505,9 +646,6 @@
     <t>KARTINI NINGGOLAN</t>
   </si>
   <si>
-    <t>TAMAT SD</t>
-  </si>
-  <si>
     <t>Jln. SP 2 KM 59 Desa Rimba Beringin</t>
   </si>
   <si>
@@ -550,9 +688,6 @@
     <t>3175094409990004</t>
   </si>
   <si>
-    <t>Alumni</t>
-  </si>
-  <si>
     <t>MAN 6 JAKARTA</t>
   </si>
   <si>
@@ -562,9 +697,6 @@
     <t>R M DIAN ANATOMMY AGOESTIAN</t>
   </si>
   <si>
-    <t>LAIN-LAIN</t>
-  </si>
-  <si>
     <t>3175096408740008</t>
   </si>
   <si>
@@ -574,9 +706,6 @@
     <t>Jl. Ki Uju Gg TB Chaerudin no. 7, Serang, Banten.</t>
   </si>
   <si>
-    <t>Kota Serang</t>
-  </si>
-  <si>
     <t>081285398426</t>
   </si>
   <si>
@@ -586,6 +715,63 @@
     <t>900 Kwh</t>
   </si>
   <si>
+    <t>NADIRA ZULFI DWI WIJAYA</t>
+  </si>
+  <si>
+    <t>18-07-2000</t>
+  </si>
+  <si>
+    <t>Jl.betet raya no.16 D</t>
+  </si>
+  <si>
+    <t>Cibodas</t>
+  </si>
+  <si>
+    <t>Kec. Cibodas</t>
+  </si>
+  <si>
+    <t>Kota Tangerang</t>
+  </si>
+  <si>
+    <t>081385554391</t>
+  </si>
+  <si>
+    <t>nadirazulfidwi@gmail.com</t>
+  </si>
+  <si>
+    <t>3671095807000006</t>
+  </si>
+  <si>
+    <t>Lain-lain</t>
+  </si>
+  <si>
+    <t>3671090307730006</t>
+  </si>
+  <si>
+    <t>IWAN KURNIAWAN SINGA WIJAYA</t>
+  </si>
+  <si>
+    <t>3671095408760002</t>
+  </si>
+  <si>
+    <t>ROSMIYATI</t>
+  </si>
+  <si>
+    <t>SARJANA MUDA</t>
+  </si>
+  <si>
+    <t>Jl. Betet Raya no.16 D</t>
+  </si>
+  <si>
+    <t>081219704281</t>
+  </si>
+  <si>
+    <t>25-07-2021</t>
+  </si>
+  <si>
+    <t>2200 Kwh</t>
+  </si>
+  <si>
     <t>NISRINA NABILA BUDIYANI</t>
   </si>
   <si>
@@ -613,9 +799,6 @@
     <t>3216066707000022</t>
   </si>
   <si>
-    <t>Internet</t>
-  </si>
-  <si>
     <t>SMAN 2 TAMBUN SELATAN</t>
   </si>
   <si>
@@ -634,13 +817,64 @@
     <t>WAHYU HANDAYANI</t>
   </si>
   <si>
-    <t>SARJANA MUDA</t>
-  </si>
-  <si>
     <t>085888466336</t>
   </si>
   <si>
     <t>22-07-2021</t>
+  </si>
+  <si>
+    <t>MOCHAMMAD RAKA SUGITO</t>
+  </si>
+  <si>
+    <t>30-06-2003</t>
+  </si>
+  <si>
+    <t>JL. Kramat Sawah III</t>
+  </si>
+  <si>
+    <t>Paseban</t>
+  </si>
+  <si>
+    <t>Kec. Senen</t>
+  </si>
+  <si>
+    <t>Kota Jakarta Pusat</t>
+  </si>
+  <si>
+    <t>081513607370</t>
+  </si>
+  <si>
+    <t>rakasugito04@gmail.com</t>
+  </si>
+  <si>
+    <t>3171043006030001</t>
+  </si>
+  <si>
+    <t>SMAN 27 JAKARTA</t>
+  </si>
+  <si>
+    <t>3171041203700003</t>
+  </si>
+  <si>
+    <t>GITO</t>
+  </si>
+  <si>
+    <t>3171046409790002</t>
+  </si>
+  <si>
+    <t>SUSILAWATI</t>
+  </si>
+  <si>
+    <t>PENSIUNAN</t>
+  </si>
+  <si>
+    <t>JL. Kramat Sawah III Rt 03/ Rw 02 No.15</t>
+  </si>
+  <si>
+    <t>081214042760</t>
+  </si>
+  <si>
+    <t>27-07-2021</t>
   </si>
 </sst>
 </file>
@@ -656,15 +890,18 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1028,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW8"/>
+  <dimension ref="A1:BW12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1326,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>21310215</v>
+        <v>21310163</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>77</v>
@@ -1371,16 +1608,16 @@
         <v>89</v>
       </c>
       <c r="Q4" s="2">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="R4" s="2">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="T4" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -1389,121 +1626,121 @@
         <v>90</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AG4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AL4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AN4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD4" s="2" t="s">
+      <c r="BE4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BE4" s="2" t="s">
+      <c r="BF4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BF4" s="2" t="s">
+      <c r="BG4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BG4" s="2" t="s">
+      <c r="BH4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BH4" s="2" t="s">
+      <c r="BI4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BI4" s="2" t="s">
+      <c r="BJ4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="BJ4" s="2" t="s">
+      <c r="BK4" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="BK4" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="BL4" s="2" t="s">
         <v>109</v>
@@ -1512,34 +1749,34 @@
         <v>82</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BO4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BP4" s="2" t="s">
+      <c r="BQ4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BQ4" s="2" t="s">
+      <c r="BR4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BR4" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="BS4" s="2">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="BT4" s="2">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="BU4" s="2">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="BV4" s="2">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="BW4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:75" x14ac:dyDescent="0.25">
@@ -1547,10 +1784,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>21310332</v>
+        <v>21310215</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>78</v>
@@ -1562,7 +1799,7 @@
         <v>80</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>82</v>
@@ -1586,73 +1823,73 @@
         <v>117</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="2">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="R5" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="S5" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="T5" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>82</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AD5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="AM5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN5" s="2" t="s">
         <v>82</v>
@@ -1703,64 +1940,64 @@
         <v>82</v>
       </c>
       <c r="BD5" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="BH5" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BJ5" s="2" t="s">
         <v>134</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="BL5" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BM5" s="2" t="s">
         <v>82</v>
       </c>
       <c r="BN5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BP5" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BQ5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BR5" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="BS5" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BT5" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="BU5" s="2">
-        <v>4950000</v>
+        <v>10000000</v>
       </c>
       <c r="BV5" s="2">
-        <v>4651000</v>
+        <v>1000000</v>
       </c>
       <c r="BW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.25">
@@ -1768,10 +2005,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>21310363</v>
+        <v>21310267</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>78</v>
@@ -1783,7 +2020,7 @@
         <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>82</v>
@@ -1798,190 +2035,184 @@
         <v>84</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>89</v>
       </c>
       <c r="Q6" s="2">
-        <v>2014</v>
-      </c>
-      <c r="R6" s="2">
-        <v>8</v>
-      </c>
-      <c r="S6" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="T6" s="2">
-        <v>7.8</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BL6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AD6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG6" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BI6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL6" s="2" t="s">
+      <c r="BO6" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="BM6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO6" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="BP6" s="2" t="s">
         <v>163</v>
       </c>
       <c r="BQ6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BR6" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="BS6" s="2">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="BT6" s="2">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="BU6" s="2">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="BV6" s="2">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="BW6" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.25">
@@ -1989,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>21310511</v>
+        <v>21310332</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>164</v>
@@ -2004,7 +2235,7 @@
         <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>82</v>
@@ -2016,7 +2247,7 @@
         <v>83</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>85</v>
@@ -2028,22 +2259,22 @@
         <v>166</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="Q7" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="R7" s="2">
         <v>45</v>
       </c>
       <c r="S7" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T7" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -2052,109 +2283,109 @@
         <v>168</v>
       </c>
       <c r="Y7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AF7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AL7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD7" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AL7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM7" s="2" t="s">
+      <c r="BE7" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AN7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE7" s="2" t="s">
+      <c r="BF7" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="BF7" s="2" t="s">
+      <c r="BG7" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="BG7" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="BH7" s="2" t="s">
         <v>181</v>
@@ -2163,10 +2394,10 @@
         <v>182</v>
       </c>
       <c r="BJ7" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="BK7" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="BL7" s="2" t="s">
         <v>183</v>
@@ -2175,34 +2406,34 @@
         <v>82</v>
       </c>
       <c r="BN7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BO7" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="BO7" s="2" t="s">
+      <c r="BP7" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="BP7" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="BQ7" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="BR7" s="2" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="BS7" s="2">
+        <v>81</v>
+      </c>
+      <c r="BT7" s="2">
         <v>60</v>
       </c>
-      <c r="BT7" s="2">
-        <v>28</v>
-      </c>
       <c r="BU7" s="2">
-        <v>0</v>
+        <v>4950000</v>
       </c>
       <c r="BV7" s="2">
-        <v>5000000</v>
+        <v>4651000</v>
       </c>
       <c r="BW7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.25">
@@ -2210,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>21310593</v>
+        <v>21310363</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>78</v>
@@ -2225,7 +2456,7 @@
         <v>80</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>82</v>
@@ -2240,184 +2471,1068 @@
         <v>115</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>189</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="2">
-        <v>2018</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+        <v>2014</v>
+      </c>
+      <c r="R8" s="2">
+        <v>8</v>
+      </c>
+      <c r="S8" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="T8" s="2">
+        <v>7.8</v>
+      </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>82</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BG8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BI8" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BK8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL8" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BM8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN8" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="BO8" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AE8" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="BE8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BF8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BH8" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="BI8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BJ8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK8" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="BL8" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN8" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BO8" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="BP8" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="BQ8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BR8" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="BS8" s="2">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="BT8" s="2">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="BU8" s="2">
-        <v>11500000</v>
+        <v>4000000</v>
       </c>
       <c r="BV8" s="2">
         <v>3000000</v>
       </c>
       <c r="BW8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>21310511</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="R9" s="2">
+        <v>45</v>
+      </c>
+      <c r="S9" s="2">
+        <v>70</v>
+      </c>
+      <c r="T9" s="2">
+        <v>86</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BF9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BI9" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BJ9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BP9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BQ9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BR9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>60</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>28</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>21310562</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2018</v>
+      </c>
+      <c r="R10" s="2">
+        <v>55</v>
+      </c>
+      <c r="S10" s="2">
+        <v>64</v>
+      </c>
+      <c r="T10" s="2">
+        <v>64</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BE10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BJ10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BK10" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BL10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BM10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BO10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>200</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>250</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>21310593</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2018</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BE11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BF11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH11" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BI11" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="BJ11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK11" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BL11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BM11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO11" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="BP11" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="BQ11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS11" s="2">
+        <v>126</v>
+      </c>
+      <c r="BT11" s="2">
+        <v>45</v>
+      </c>
+      <c r="BU11" s="2">
+        <v>11500000</v>
+      </c>
+      <c r="BV11" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="BW11" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>21318241</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="R12" s="2">
+        <v>91</v>
+      </c>
+      <c r="S12" s="2">
+        <v>88</v>
+      </c>
+      <c r="T12" s="2">
+        <v>85</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD12" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="BE12" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="BF12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG12" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BH12" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="BI12" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="BJ12" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="BK12" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BL12" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BM12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN12" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="BO12" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="BP12" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="BQ12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS12" s="2">
+        <v>18</v>
+      </c>
+      <c r="BT12" s="2">
+        <v>28</v>
+      </c>
+      <c r="BU12" s="2">
+        <v>7465080</v>
+      </c>
+      <c r="BV12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/jaj.xlsx
+++ b/docs/jaj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\04_D3 dan Alih Jenjang\21umm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97CC4DE2-FA72-4D5C-BD4D-191735C8BD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A2187A-1E63-4002-84BA-DA3C7903F5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="302">
   <si>
     <t>DAFTAR PENDAFTAR</t>
   </si>
@@ -650,6 +650,57 @@
   </si>
   <si>
     <t>04-07-2021</t>
+  </si>
+  <si>
+    <t>ABDUL AZIS SOLEHUDIN</t>
+  </si>
+  <si>
+    <t>Lebak</t>
+  </si>
+  <si>
+    <t>30-10-1999</t>
+  </si>
+  <si>
+    <t>Kp. Cikaung Desa Mugijaya</t>
+  </si>
+  <si>
+    <t>Desa Mugijaya</t>
+  </si>
+  <si>
+    <t>Kec. Cigemblong</t>
+  </si>
+  <si>
+    <t>Kab. Lebak</t>
+  </si>
+  <si>
+    <t>085811872610</t>
+  </si>
+  <si>
+    <t>olenkazis72@gmail.com</t>
+  </si>
+  <si>
+    <t>3602283010990005</t>
+  </si>
+  <si>
+    <t>SMAS AL HIDAYAH RANGKASBITUNG</t>
+  </si>
+  <si>
+    <t>3602281009680003</t>
+  </si>
+  <si>
+    <t>MADSOLEH</t>
+  </si>
+  <si>
+    <t>3602284705750005</t>
+  </si>
+  <si>
+    <t>YUYUN</t>
+  </si>
+  <si>
+    <t>081574293645</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
   </si>
   <si>
     <t>ERICKA DIAN SAPHIRA</t>
@@ -890,18 +941,15 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1265,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW12"/>
+  <dimension ref="A1:BW13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2662,7 +2710,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>21310511</v>
+        <v>21310458</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>210</v>
@@ -2689,7 +2737,7 @@
         <v>83</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>85</v>
@@ -2701,178 +2749,172 @@
         <v>212</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="2">
-        <v>2020</v>
-      </c>
-      <c r="R9" s="2">
-        <v>45</v>
-      </c>
-      <c r="S9" s="2">
-        <v>70</v>
-      </c>
-      <c r="T9" s="2">
-        <v>86</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z9" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AB9" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AE9" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AF9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK9" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AL9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD9" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AF9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK9" s="2" t="s">
+      <c r="BE9" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AL9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM9" s="2" t="s">
+      <c r="BF9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH9" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AN9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE9" s="2" t="s">
+      <c r="BI9" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="BF9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BG9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BH9" s="2" t="s">
+      <c r="BJ9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BK9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BM9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BO9" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="BI9" s="2" t="s">
+      <c r="BP9" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="BJ9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BK9" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BL9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BM9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BP9" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="BQ9" s="2" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="BR9" s="2" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c r="BS9" s="2">
+        <v>72</v>
+      </c>
+      <c r="BT9" s="2">
         <v>60</v>
       </c>
-      <c r="BT9" s="2">
-        <v>28</v>
-      </c>
       <c r="BU9" s="2">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="BV9" s="2">
-        <v>5000000</v>
+        <v>200000</v>
       </c>
       <c r="BW9" s="2">
         <v>3</v>
@@ -2883,10 +2925,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>21310562</v>
+        <v>21310511</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>78</v>
@@ -2916,76 +2958,76 @@
         <v>85</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="R10" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="S10" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="T10" s="2">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z10" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="Y10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AE10" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK10" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AF10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK10" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="AL10" s="2" t="s">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="AM10" s="2" t="s">
         <v>240</v>
@@ -3039,58 +3081,58 @@
         <v>82</v>
       </c>
       <c r="BD10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE10" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="BE10" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="BF10" s="2" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="BG10" s="2" t="s">
         <v>135</v>
       </c>
       <c r="BH10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BI10" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="BI10" s="2" t="s">
+      <c r="BJ10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="BJ10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BK10" s="2" t="s">
+      <c r="BM10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO10" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="BL10" s="2" t="s">
+      <c r="BP10" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="BM10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN10" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="BO10" s="2" t="s">
+      <c r="BQ10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BR10" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="BP10" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BQ10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR10" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="BS10" s="2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="BT10" s="2">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="BU10" s="2">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="BV10" s="2">
         <v>5000000</v>
@@ -3104,10 +3146,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>21310593</v>
+        <v>21310562</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>78</v>
@@ -3119,7 +3161,7 @@
         <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>82</v>
@@ -3137,181 +3179,187 @@
         <v>85</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>118</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="2">
         <v>2018</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="R11" s="2">
+        <v>55</v>
+      </c>
+      <c r="S11" s="2">
+        <v>64</v>
+      </c>
+      <c r="T11" s="2">
+        <v>64</v>
+      </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA11" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z11" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AD11" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AE11" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM11" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AN11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD11" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AF11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK11" s="2" t="s">
+      <c r="BE11" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AL11" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AM11" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD11" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="BE11" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="BF11" s="2" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="BG11" s="2" t="s">
         <v>135</v>
       </c>
       <c r="BH11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="BI11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BK11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BL11" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BI11" s="2" t="s">
+      <c r="BM11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BO11" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="BJ11" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK11" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL11" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="BM11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN11" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="BO11" s="2" t="s">
+      <c r="BP11" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="BP11" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="BQ11" s="2" t="s">
         <v>111</v>
       </c>
       <c r="BR11" s="2" t="s">
-        <v>141</v>
+        <v>266</v>
       </c>
       <c r="BS11" s="2">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BT11" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="BU11" s="2">
-        <v>11500000</v>
+        <v>5000000</v>
       </c>
       <c r="BV11" s="2">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="BW11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.25">
@@ -3319,7 +3367,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>21318241</v>
+        <v>21310593</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>267</v>
@@ -3346,13 +3394,13 @@
         <v>83</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>85</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>268</v>
@@ -3364,17 +3412,11 @@
         <v>119</v>
       </c>
       <c r="Q12" s="2">
-        <v>2021</v>
-      </c>
-      <c r="R12" s="2">
-        <v>91</v>
-      </c>
-      <c r="S12" s="2">
-        <v>88</v>
-      </c>
-      <c r="T12" s="2">
-        <v>85</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -3424,7 +3466,7 @@
         <v>272</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="AN12" s="2" t="s">
         <v>82</v>
@@ -3475,31 +3517,31 @@
         <v>82</v>
       </c>
       <c r="BD12" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BE12" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BF12" s="2" t="s">
         <v>104</v>
       </c>
       <c r="BG12" s="2" t="s">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="BH12" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BI12" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BJ12" s="2" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="BK12" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="BL12" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="BM12" s="2" t="s">
         <v>82</v>
@@ -3508,10 +3550,10 @@
         <v>272</v>
       </c>
       <c r="BO12" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BP12" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="BP12" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="BQ12" s="2" t="s">
         <v>111</v>
@@ -3520,18 +3562,239 @@
         <v>141</v>
       </c>
       <c r="BS12" s="2">
+        <v>126</v>
+      </c>
+      <c r="BT12" s="2">
+        <v>45</v>
+      </c>
+      <c r="BU12" s="2">
+        <v>11500000</v>
+      </c>
+      <c r="BV12" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="BW12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>21318241</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="2">
+        <v>91</v>
+      </c>
+      <c r="S13" s="2">
+        <v>88</v>
+      </c>
+      <c r="T13" s="2">
+        <v>85</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD13" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="BE13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BF13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BH13" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="BI13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="BJ13" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BK13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BL13" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BM13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN13" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="BO13" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BP13" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BQ13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS13" s="2">
         <v>18</v>
       </c>
-      <c r="BT12" s="2">
+      <c r="BT13" s="2">
         <v>28</v>
       </c>
-      <c r="BU12" s="2">
+      <c r="BU13" s="2">
         <v>7465080</v>
       </c>
-      <c r="BV12" s="2">
+      <c r="BV13" s="2">
         <v>0</v>
       </c>
-      <c r="BW12" s="2">
+      <c r="BW13" s="2">
         <v>3</v>
       </c>
     </row>

--- a/docs/jaj.xlsx
+++ b/docs/jaj.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\04_D3 dan Alih Jenjang\21umm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A2187A-1E63-4002-84BA-DA3C7903F5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E6F4365-875D-4E95-B152-E38268CBB2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="436">
   <si>
     <t>DAFTAR PENDAFTAR</t>
   </si>
@@ -703,12 +703,75 @@
     <t>29-07-2021</t>
   </si>
   <si>
+    <t>RICKY NUR FAZRIL</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>05-01-1998</t>
+  </si>
+  <si>
+    <t>Kp. Bulak Teko Jl.Waru V No.221</t>
+  </si>
+  <si>
+    <t>Kalideres</t>
+  </si>
+  <si>
+    <t>Kec. Kali Deres</t>
+  </si>
+  <si>
+    <t>Kota Jakarta Barat</t>
+  </si>
+  <si>
+    <t>082122444699</t>
+  </si>
+  <si>
+    <t>rickynurfazril@gmail.com</t>
+  </si>
+  <si>
+    <t>3173010501980011</t>
+  </si>
+  <si>
+    <t>Wuling Prima Tomang</t>
+  </si>
+  <si>
+    <t>Jl. Arjuna Utara No.131, Grogol Petamburan</t>
+  </si>
+  <si>
+    <t>Sales Consultant</t>
+  </si>
+  <si>
+    <t>SMAN 33 JAKARTA</t>
+  </si>
+  <si>
+    <t>Prop. D.K.I. Jakarta</t>
+  </si>
+  <si>
+    <t>3173010508740017</t>
+  </si>
+  <si>
+    <t>SURAHMAN</t>
+  </si>
+  <si>
+    <t>3173014901760006</t>
+  </si>
+  <si>
+    <t>LELI NURITA</t>
+  </si>
+  <si>
+    <t>Kp Bulak Teko Jl Waru V No.221, Kalideres, Jakarta</t>
+  </si>
+  <si>
+    <t>081210311068</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
     <t>ERICKA DIAN SAPHIRA</t>
   </si>
   <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
     <t>04-09-1999</t>
   </si>
   <si>
@@ -742,9 +805,6 @@
     <t>MAN 6 JAKARTA</t>
   </si>
   <si>
-    <t>Prop. D.K.I. Jakarta</t>
-  </si>
-  <si>
     <t>R M DIAN ANATOMMY AGOESTIAN</t>
   </si>
   <si>
@@ -874,6 +934,306 @@
     <t>22-07-2021</t>
   </si>
   <si>
+    <t>ANNISYA NURUL FIRDAUS</t>
+  </si>
+  <si>
+    <t>Cilegon</t>
+  </si>
+  <si>
+    <t>04-05-2000</t>
+  </si>
+  <si>
+    <t>Taman Puri Indah Blok B5 No.8</t>
+  </si>
+  <si>
+    <t>Kelurahan Serang</t>
+  </si>
+  <si>
+    <t>Kec. Serang</t>
+  </si>
+  <si>
+    <t>085216370001</t>
+  </si>
+  <si>
+    <t>annisyaanf@gmail.com</t>
+  </si>
+  <si>
+    <t>3604014405000003</t>
+  </si>
+  <si>
+    <t>SMAN 1 KOTA SERANG</t>
+  </si>
+  <si>
+    <t>3604011407700001</t>
+  </si>
+  <si>
+    <t>LUKMAN HAKIM</t>
+  </si>
+  <si>
+    <t>3604015403760002</t>
+  </si>
+  <si>
+    <t>IDA RAHAYU</t>
+  </si>
+  <si>
+    <t>087808244187</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>ADELIA VIRA NAVYA NINGTYAS</t>
+  </si>
+  <si>
+    <t>23-11-1999</t>
+  </si>
+  <si>
+    <t>Perum. Cikande Permai Blok R 15 No 5</t>
+  </si>
+  <si>
+    <t>Cikande Permai</t>
+  </si>
+  <si>
+    <t>Kec. Cikande</t>
+  </si>
+  <si>
+    <t>081807318325</t>
+  </si>
+  <si>
+    <t>Adeliavirann23@gmail.com</t>
+  </si>
+  <si>
+    <t>3604156311990003</t>
+  </si>
+  <si>
+    <t>SMAN 1 CIKANDE KJSMAN 1 CIRUAS</t>
+  </si>
+  <si>
+    <t>3604151005660001</t>
+  </si>
+  <si>
+    <t>BUDI PURWOTO</t>
+  </si>
+  <si>
+    <t>PENSIUNAN PNS/TNI</t>
+  </si>
+  <si>
+    <t>3604156612660001</t>
+  </si>
+  <si>
+    <t>LISIANIK RAHAYU</t>
+  </si>
+  <si>
+    <t>GURU/DOSEN NEGERI</t>
+  </si>
+  <si>
+    <t>Perum. Cikande Permai Blok R 15 No 5 Kec. Cikande</t>
+  </si>
+  <si>
+    <t>081315267758</t>
+  </si>
+  <si>
+    <t>31-07-2021</t>
+  </si>
+  <si>
+    <t>SUNENTI</t>
+  </si>
+  <si>
+    <t>Indramayu</t>
+  </si>
+  <si>
+    <t>04-10-2000</t>
+  </si>
+  <si>
+    <t>Jln.mangga blok bor/blok 11</t>
+  </si>
+  <si>
+    <t>Jl. Raya Bojonegara link.Pecek Cilegon</t>
+  </si>
+  <si>
+    <t>Kertanegara</t>
+  </si>
+  <si>
+    <t>Kec. Haurgeulis</t>
+  </si>
+  <si>
+    <t>Kab. Indramayu</t>
+  </si>
+  <si>
+    <t>082216767611</t>
+  </si>
+  <si>
+    <t>Sunenti104@gmail.com</t>
+  </si>
+  <si>
+    <t>3212014410000003</t>
+  </si>
+  <si>
+    <t>SMAN 1 HAURGEULIS</t>
+  </si>
+  <si>
+    <t>3212010107680232</t>
+  </si>
+  <si>
+    <t>AMIN</t>
+  </si>
+  <si>
+    <t>3212014107720042</t>
+  </si>
+  <si>
+    <t>SATIRI</t>
+  </si>
+  <si>
+    <t>Jln.Mangga Blok bor/blok 11 rt/rw 014/007</t>
+  </si>
+  <si>
+    <t>082319445574</t>
+  </si>
+  <si>
+    <t>DIFFA AYOMI MAYAPA</t>
+  </si>
+  <si>
+    <t>Tanggamus</t>
+  </si>
+  <si>
+    <t>24-01-2001</t>
+  </si>
+  <si>
+    <t>Jl. Saleh Baimin RT/RW 02/03 No. 10 Cimuncang</t>
+  </si>
+  <si>
+    <t>Cimuncang</t>
+  </si>
+  <si>
+    <t>081218159245</t>
+  </si>
+  <si>
+    <t>diffamypaa@gmail.com</t>
+  </si>
+  <si>
+    <t>3604016401010001</t>
+  </si>
+  <si>
+    <t>Brosur</t>
+  </si>
+  <si>
+    <t>3604012708650971</t>
+  </si>
+  <si>
+    <t>ADHAM BAHTRA PANGERTI</t>
+  </si>
+  <si>
+    <t>3604015204840975</t>
+  </si>
+  <si>
+    <t>HERLINA</t>
+  </si>
+  <si>
+    <t>Jl. Saleh baimin RT/RW 02/03 No.10 Cimuncang</t>
+  </si>
+  <si>
+    <t>+628138538574</t>
+  </si>
+  <si>
+    <t>AZZAHRA NURUL RAMADHANTI</t>
+  </si>
+  <si>
+    <t>10-12-2000</t>
+  </si>
+  <si>
+    <t>Kp.Ciroke Rt.04 Rw.01 Ds.Tambak Kec.Kibin</t>
+  </si>
+  <si>
+    <t>Tambak</t>
+  </si>
+  <si>
+    <t>Kec. Kibin</t>
+  </si>
+  <si>
+    <t>083812686117</t>
+  </si>
+  <si>
+    <t>Azzahranurul763@gmail.com</t>
+  </si>
+  <si>
+    <t>3604165012000004</t>
+  </si>
+  <si>
+    <t>SMAN 1 CIRUAS</t>
+  </si>
+  <si>
+    <t>3604160604710003</t>
+  </si>
+  <si>
+    <t>UDIN BAKHRUDIN</t>
+  </si>
+  <si>
+    <t>3604166006750003</t>
+  </si>
+  <si>
+    <t>AFIKOH ANGGRAENI</t>
+  </si>
+  <si>
+    <t>Kp.Ciroke Rt.04 Rw.01 DS.Tambak Kec.Kibin</t>
+  </si>
+  <si>
+    <t>085921365040</t>
+  </si>
+  <si>
+    <t>AGITA SUCI NAHARANI</t>
+  </si>
+  <si>
+    <t>19-08-2000</t>
+  </si>
+  <si>
+    <t>Komp.Citra Gading Blok E10 No.7</t>
+  </si>
+  <si>
+    <t>Karundang</t>
+  </si>
+  <si>
+    <t>Kec. Cipocok Jaya</t>
+  </si>
+  <si>
+    <t>085719864741</t>
+  </si>
+  <si>
+    <t>agitasuci668@gmail.com</t>
+  </si>
+  <si>
+    <t>3604025908000627</t>
+  </si>
+  <si>
+    <t>MAN 2 KOTA SERANG</t>
+  </si>
+  <si>
+    <t>3604021908720001</t>
+  </si>
+  <si>
+    <t>MUH.CUAIB</t>
+  </si>
+  <si>
+    <t>ABRI</t>
+  </si>
+  <si>
+    <t>3604024402760001</t>
+  </si>
+  <si>
+    <t>CICIH KURNIASIH</t>
+  </si>
+  <si>
+    <t>PASCASARJANA (S2)</t>
+  </si>
+  <si>
+    <t>Komp.Citra Gading Blok E10/No.7</t>
+  </si>
+  <si>
+    <t>Kota Cilegon</t>
+  </si>
+  <si>
+    <t>085817702760</t>
+  </si>
+  <si>
     <t>MOCHAMMAD RAKA SUGITO</t>
   </si>
   <si>
@@ -926,6 +1286,48 @@
   </si>
   <si>
     <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>NIA KARMILAH</t>
+  </si>
+  <si>
+    <t>02-11-2000</t>
+  </si>
+  <si>
+    <t>Kp. Keusikeun RT/RW.004/001 Ds. Sukamurni</t>
+  </si>
+  <si>
+    <t>Sukamurni</t>
+  </si>
+  <si>
+    <t>Kec. Balaraja</t>
+  </si>
+  <si>
+    <t>08889192387</t>
+  </si>
+  <si>
+    <t>nia57864@gmail.com</t>
+  </si>
+  <si>
+    <t>3603014211000004</t>
+  </si>
+  <si>
+    <t>SMAS MANDIRI BALARAJA</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>ALM. AKHMAD SUHAEPI</t>
+  </si>
+  <si>
+    <t>YATI SUMIATI</t>
+  </si>
+  <si>
+    <t>Kp. Keusikeun RT/RW. 004/001 Ds. Sukamurni, Balara</t>
+  </si>
+  <si>
+    <t>083879420986</t>
   </si>
 </sst>
 </file>
@@ -1313,55 +1715,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW13"/>
+  <dimension ref="A1:BW21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="20" width="6.6640625" customWidth="1"/>
-    <col min="21" max="23" width="12.6640625" customWidth="1"/>
-    <col min="24" max="25" width="30.6640625" customWidth="1"/>
-    <col min="26" max="27" width="17.6640625" customWidth="1"/>
-    <col min="28" max="28" width="24.6640625" customWidth="1"/>
-    <col min="29" max="30" width="12.6640625" customWidth="1"/>
-    <col min="31" max="33" width="15.6640625" customWidth="1"/>
-    <col min="34" max="34" width="20.6640625" customWidth="1"/>
-    <col min="35" max="36" width="15.6640625" customWidth="1"/>
-    <col min="37" max="38" width="25.6640625" customWidth="1"/>
-    <col min="39" max="39" width="20.6640625" customWidth="1"/>
-    <col min="40" max="40" width="25.6640625" customWidth="1"/>
-    <col min="41" max="47" width="15.6640625" customWidth="1"/>
-    <col min="48" max="48" width="25.6640625" customWidth="1"/>
-    <col min="49" max="56" width="15.6640625" customWidth="1"/>
-    <col min="57" max="58" width="25.6640625" customWidth="1"/>
-    <col min="59" max="59" width="20.6640625" customWidth="1"/>
-    <col min="60" max="60" width="15.6640625" customWidth="1"/>
-    <col min="61" max="62" width="25.6640625" customWidth="1"/>
-    <col min="63" max="64" width="30.6640625" customWidth="1"/>
-    <col min="65" max="65" width="25.6640625" customWidth="1"/>
-    <col min="66" max="66" width="24.6640625" customWidth="1"/>
-    <col min="67" max="67" width="18.6640625" customWidth="1"/>
-    <col min="68" max="68" width="22.6640625" customWidth="1"/>
-    <col min="69" max="71" width="25.6640625" customWidth="1"/>
-    <col min="72" max="72" width="22.6640625" customWidth="1"/>
-    <col min="73" max="74" width="25.6640625" customWidth="1"/>
-    <col min="75" max="75" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="4" max="6" width="15.7265625" customWidth="1"/>
+    <col min="7" max="9" width="30.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="7.7265625" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" customWidth="1"/>
+    <col min="13" max="14" width="14.7265625" customWidth="1"/>
+    <col min="15" max="15" width="10.7265625" customWidth="1"/>
+    <col min="16" max="16" width="15.7265625" customWidth="1"/>
+    <col min="18" max="20" width="6.7265625" customWidth="1"/>
+    <col min="21" max="23" width="12.7265625" customWidth="1"/>
+    <col min="24" max="25" width="30.7265625" customWidth="1"/>
+    <col min="26" max="27" width="17.7265625" customWidth="1"/>
+    <col min="28" max="28" width="24.7265625" customWidth="1"/>
+    <col min="29" max="30" width="12.7265625" customWidth="1"/>
+    <col min="31" max="33" width="15.7265625" customWidth="1"/>
+    <col min="34" max="34" width="20.7265625" customWidth="1"/>
+    <col min="35" max="36" width="15.7265625" customWidth="1"/>
+    <col min="37" max="38" width="25.7265625" customWidth="1"/>
+    <col min="39" max="39" width="20.7265625" customWidth="1"/>
+    <col min="40" max="40" width="25.7265625" customWidth="1"/>
+    <col min="41" max="47" width="15.7265625" customWidth="1"/>
+    <col min="48" max="48" width="25.7265625" customWidth="1"/>
+    <col min="49" max="56" width="15.7265625" customWidth="1"/>
+    <col min="57" max="58" width="25.7265625" customWidth="1"/>
+    <col min="59" max="59" width="20.7265625" customWidth="1"/>
+    <col min="60" max="60" width="15.7265625" customWidth="1"/>
+    <col min="61" max="62" width="25.7265625" customWidth="1"/>
+    <col min="63" max="64" width="30.7265625" customWidth="1"/>
+    <col min="65" max="65" width="25.7265625" customWidth="1"/>
+    <col min="66" max="66" width="24.7265625" customWidth="1"/>
+    <col min="67" max="67" width="18.7265625" customWidth="1"/>
+    <col min="68" max="68" width="22.7265625" customWidth="1"/>
+    <col min="69" max="71" width="25.7265625" customWidth="1"/>
+    <col min="72" max="72" width="22.7265625" customWidth="1"/>
+    <col min="73" max="74" width="25.7265625" customWidth="1"/>
+    <col min="75" max="75" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" ht="14" x14ac:dyDescent="0.25">
       <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1771,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:75" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" ht="14" x14ac:dyDescent="0.25">
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1379,7 +1780,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" ht="13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2925,7 +3326,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>21310511</v>
+        <v>21310496</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>227</v>
@@ -2952,7 +3353,7 @@
         <v>83</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>85</v>
@@ -2964,73 +3365,73 @@
         <v>229</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>119</v>
       </c>
       <c r="Q10" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="R10" s="2">
-        <v>45</v>
+        <v>87.5</v>
       </c>
       <c r="S10" s="2">
         <v>70</v>
       </c>
       <c r="T10" s="2">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z10" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AE10" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG10" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AF10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="AI10" s="2" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>98</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN10" s="2" t="s">
         <v>82</v>
@@ -3081,61 +3482,61 @@
         <v>82</v>
       </c>
       <c r="BD10" s="2" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="BE10" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BF10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BI10" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BJ10" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="BG10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BH10" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="BI10" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="BJ10" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="BK10" s="2" t="s">
         <v>180</v>
       </c>
       <c r="BL10" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BM10" s="2" t="s">
         <v>82</v>
       </c>
       <c r="BN10" s="2" t="s">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="BO10" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BP10" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BQ10" s="2" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="BR10" s="2" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="BS10" s="2">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="BT10" s="2">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="BU10" s="2">
+        <v>3300000</v>
+      </c>
+      <c r="BV10" s="2">
         <v>0</v>
-      </c>
-      <c r="BV10" s="2">
-        <v>5000000</v>
       </c>
       <c r="BW10" s="2">
         <v>3</v>
@@ -3146,10 +3547,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>21310562</v>
+        <v>21310511</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>78</v>
@@ -3179,181 +3580,181 @@
         <v>85</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="R11" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="S11" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="T11" s="2">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AE11" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL11" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AF11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AM11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BF11" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM11" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AN11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD11" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="BE11" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="BF11" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="BG11" s="2" t="s">
         <v>135</v>
       </c>
       <c r="BH11" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="BI11" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BJ11" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="BK11" s="2" t="s">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="BL11" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BM11" s="2" t="s">
         <v>82</v>
       </c>
       <c r="BN11" s="2" t="s">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="BO11" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BP11" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BQ11" s="2" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="BR11" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BS11" s="2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="BT11" s="2">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="BU11" s="2">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="BV11" s="2">
         <v>5000000</v>
@@ -3367,10 +3768,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>21310593</v>
+        <v>21310562</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>78</v>
@@ -3382,7 +3783,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>82</v>
@@ -3400,49 +3801,55 @@
         <v>85</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>118</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="2">
         <v>2018</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="R12" s="2">
+        <v>55</v>
+      </c>
+      <c r="S12" s="2">
+        <v>64</v>
+      </c>
+      <c r="T12" s="2">
+        <v>64</v>
+      </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y12" s="2" t="s">
         <v>82</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF12" s="2" t="s">
         <v>82</v>
@@ -3457,13 +3864,13 @@
         <v>82</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="AM12" s="2" t="s">
         <v>277</v>
@@ -3523,7 +3930,7 @@
         <v>279</v>
       </c>
       <c r="BF12" s="2" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="BG12" s="2" t="s">
         <v>135</v>
@@ -3535,46 +3942,46 @@
         <v>281</v>
       </c>
       <c r="BJ12" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="BK12" s="2" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="BL12" s="2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="BM12" s="2" t="s">
         <v>82</v>
       </c>
       <c r="BN12" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BO12" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="BP12" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BQ12" s="2" t="s">
         <v>111</v>
       </c>
       <c r="BR12" s="2" t="s">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="BS12" s="2">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BT12" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="BU12" s="2">
-        <v>11500000</v>
+        <v>5000000</v>
       </c>
       <c r="BV12" s="2">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="BW12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:75" x14ac:dyDescent="0.25">
@@ -3582,10 +3989,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>21318241</v>
+        <v>21310593</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>78</v>
@@ -3609,7 +4016,7 @@
         <v>83</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>85</v>
@@ -3618,7 +4025,7 @@
         <v>228</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>118</v>
@@ -3627,43 +4034,37 @@
         <v>119</v>
       </c>
       <c r="Q13" s="2">
-        <v>2021</v>
-      </c>
-      <c r="R13" s="2">
-        <v>91</v>
-      </c>
-      <c r="S13" s="2">
-        <v>88</v>
-      </c>
-      <c r="T13" s="2">
-        <v>85</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Y13" s="2" t="s">
         <v>82</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AF13" s="2" t="s">
         <v>82</v>
@@ -3681,13 +4082,13 @@
         <v>152</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="AN13" s="2" t="s">
         <v>82</v>
@@ -3738,43 +4139,43 @@
         <v>82</v>
       </c>
       <c r="BD13" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="BE13" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="BF13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="BG13" s="2" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="BH13" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="BI13" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="BJ13" s="2" t="s">
-        <v>298</v>
+        <v>127</v>
       </c>
       <c r="BK13" s="2" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="BL13" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="BM13" s="2" t="s">
         <v>82</v>
       </c>
       <c r="BN13" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="BO13" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="BP13" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="BQ13" s="2" t="s">
         <v>111</v>
@@ -3783,19 +4184,1787 @@
         <v>141</v>
       </c>
       <c r="BS13" s="2">
+        <v>126</v>
+      </c>
+      <c r="BT13" s="2">
+        <v>45</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>11500000</v>
+      </c>
+      <c r="BV13" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="BW13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>21317632</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2018</v>
+      </c>
+      <c r="R14" s="2">
+        <v>75</v>
+      </c>
+      <c r="S14" s="2">
+        <v>78</v>
+      </c>
+      <c r="T14" s="2">
+        <v>84</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="BE14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BF14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH14" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="BI14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BJ14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BL14" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO14" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="BP14" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="BQ14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR14" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="BS14" s="2">
+        <v>120</v>
+      </c>
+      <c r="BT14" s="2">
+        <v>70</v>
+      </c>
+      <c r="BU14" s="2">
+        <v>15000000</v>
+      </c>
+      <c r="BV14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>21317730</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2018</v>
+      </c>
+      <c r="R15" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="S15" s="2">
+        <v>68</v>
+      </c>
+      <c r="T15" s="2">
+        <v>74</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD15" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="BE15" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="BF15" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="BG15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH15" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="BI15" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="BJ15" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="BK15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BL15" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="BM15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO15" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="BP15" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="BQ15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS15" s="2">
+        <v>60</v>
+      </c>
+      <c r="BT15" s="2">
+        <v>21</v>
+      </c>
+      <c r="BU15" s="2">
+        <v>3405300</v>
+      </c>
+      <c r="BV15" s="2">
+        <v>4669300</v>
+      </c>
+      <c r="BW15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>21317789</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>2018</v>
+      </c>
+      <c r="R16" s="2">
+        <v>17</v>
+      </c>
+      <c r="S16" s="2">
+        <v>44</v>
+      </c>
+      <c r="T16" s="2">
+        <v>68</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD16" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="BE16" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="BF16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BG16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH16" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="BI16" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="BJ16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BL16" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="BM16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN16" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="BO16" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="BP16" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="BQ16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BS16" s="2">
+        <v>551</v>
+      </c>
+      <c r="BT16" s="2">
+        <v>64</v>
+      </c>
+      <c r="BU16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="BV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>21317857</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>2018</v>
+      </c>
+      <c r="R17" s="2">
+        <v>34</v>
+      </c>
+      <c r="S17" s="2">
+        <v>74</v>
+      </c>
+      <c r="T17" s="2">
+        <v>66</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD17" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="BE17" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="BF17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH17" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI17" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="BJ17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL17" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="BM17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO17" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="BP17" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="BQ17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR17" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS17" s="2">
+        <v>294</v>
+      </c>
+      <c r="BT17" s="2">
+        <v>72</v>
+      </c>
+      <c r="BU17" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="BV17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>21317981</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2018</v>
+      </c>
+      <c r="R18" s="2">
+        <v>30</v>
+      </c>
+      <c r="S18" s="2">
+        <v>68</v>
+      </c>
+      <c r="T18" s="2">
+        <v>78</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD18" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="BE18" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BF18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH18" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="BI18" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BJ18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK18" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BL18" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="BM18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO18" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BP18" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BS18" s="2">
+        <v>474</v>
+      </c>
+      <c r="BT18" s="2">
+        <v>108</v>
+      </c>
+      <c r="BU18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="BV18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>21318037</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2018</v>
+      </c>
+      <c r="R19" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="S19" s="2">
+        <v>56</v>
+      </c>
+      <c r="T19" s="2">
+        <v>76</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD19" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="BE19" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="BF19" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="BG19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH19" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="BI19" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="BJ19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BK19" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="BL19" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="BM19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN19" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="BO19" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="BP19" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR19" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS19" s="2">
+        <v>96</v>
+      </c>
+      <c r="BT19" s="2">
+        <v>92</v>
+      </c>
+      <c r="BU19" s="2">
+        <v>4500000</v>
+      </c>
+      <c r="BV19" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="BW19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>21318241</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>2021</v>
+      </c>
+      <c r="R20" s="2">
+        <v>91</v>
+      </c>
+      <c r="S20" s="2">
+        <v>88</v>
+      </c>
+      <c r="T20" s="2">
+        <v>85</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD20" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="BE20" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="BF20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG20" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BH20" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="BI20" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="BJ20" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="BK20" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BL20" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="BM20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN20" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="BO20" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="BP20" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="BQ20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS20" s="2">
         <v>18</v>
       </c>
-      <c r="BT13" s="2">
+      <c r="BT20" s="2">
         <v>28</v>
       </c>
-      <c r="BU13" s="2">
+      <c r="BU20" s="2">
         <v>7465080</v>
       </c>
-      <c r="BV13" s="2">
+      <c r="BV20" s="2">
         <v>0</v>
       </c>
-      <c r="BW13" s="2">
+      <c r="BW20" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>21318245</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>2018</v>
+      </c>
+      <c r="R21" s="2">
+        <v>25</v>
+      </c>
+      <c r="S21" s="2">
+        <v>48</v>
+      </c>
+      <c r="T21" s="2">
+        <v>76</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AL21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD21" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="BE21" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="BF21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI21" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="BJ21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL21" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="BM21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BO21" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="BP21" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS21" s="2">
+        <v>2668</v>
+      </c>
+      <c r="BT21" s="2">
+        <v>95</v>
+      </c>
+      <c r="BU21" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="BV21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/jaj.xlsx
+++ b/docs/jaj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\04_D3 dan Alih Jenjang\21umm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E6F4365-875D-4E95-B152-E38268CBB2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C88D8E9-D4DC-46EC-926B-765473AF5B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="485">
   <si>
     <t>DAFTAR PENDAFTAR</t>
   </si>
@@ -1234,6 +1234,105 @@
     <t>085817702760</t>
   </si>
   <si>
+    <t>WANDA AZIZAH HAETI SURYANTO</t>
+  </si>
+  <si>
+    <t>pandeglang</t>
+  </si>
+  <si>
+    <t>30-10-2000</t>
+  </si>
+  <si>
+    <t>Jl. Mulkita No.09 Pasar Heubeul</t>
+  </si>
+  <si>
+    <t>Kabayan</t>
+  </si>
+  <si>
+    <t>Kec. Pandeglang</t>
+  </si>
+  <si>
+    <t>0895348210096</t>
+  </si>
+  <si>
+    <t>wandaazizahhs@gmail.com</t>
+  </si>
+  <si>
+    <t>3601217010000001</t>
+  </si>
+  <si>
+    <t>SMAN 1 PANDEGLANG</t>
+  </si>
+  <si>
+    <t>3601212403660001</t>
+  </si>
+  <si>
+    <t>NANANG SURYANTO</t>
+  </si>
+  <si>
+    <t>PENSIUNAN</t>
+  </si>
+  <si>
+    <t>3601214211650001</t>
+  </si>
+  <si>
+    <t>ETI ROHAETI</t>
+  </si>
+  <si>
+    <t>Jl. Mulkita No.09 Rt/Rw 001/003 Pasar Heubeul</t>
+  </si>
+  <si>
+    <t>081289822362</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>DESTI CHAERUNNISA</t>
+  </si>
+  <si>
+    <t>09-12-1998</t>
+  </si>
+  <si>
+    <t>Jl Raya Serang Pandeglang kec.Baros</t>
+  </si>
+  <si>
+    <t>kp.siluwung jaya kel.sukamanah  kec baros</t>
+  </si>
+  <si>
+    <t>Baros</t>
+  </si>
+  <si>
+    <t>Kec. Baros</t>
+  </si>
+  <si>
+    <t>081289324775</t>
+  </si>
+  <si>
+    <t>destichaerunnisa99@gmail.com</t>
+  </si>
+  <si>
+    <t>3604224912980001</t>
+  </si>
+  <si>
+    <t>3604221010520001</t>
+  </si>
+  <si>
+    <t>A.SANUDIN</t>
+  </si>
+  <si>
+    <t>3604224112540001</t>
+  </si>
+  <si>
+    <t>TATI ASNATI</t>
+  </si>
+  <si>
+    <t>baros</t>
+  </si>
+  <si>
+    <t>+62 85946577</t>
+  </si>
+  <si>
     <t>MOCHAMMAD RAKA SUGITO</t>
   </si>
   <si>
@@ -1276,9 +1375,6 @@
     <t>SUSILAWATI</t>
   </si>
   <si>
-    <t>PENSIUNAN</t>
-  </si>
-  <si>
     <t>JL. Kramat Sawah III Rt 03/ Rw 02 No.15</t>
   </si>
   <si>
@@ -1328,6 +1424,57 @@
   </si>
   <si>
     <t>083879420986</t>
+  </si>
+  <si>
+    <t>ALYA AMMAR</t>
+  </si>
+  <si>
+    <t>LAB008-2 - Labkom Pusdainfo</t>
+  </si>
+  <si>
+    <t>Bekasi</t>
+  </si>
+  <si>
+    <t>11-04-1999</t>
+  </si>
+  <si>
+    <t>Jl. Nursaadah no.39</t>
+  </si>
+  <si>
+    <t>Jatiwaringin</t>
+  </si>
+  <si>
+    <t>Kec. Pondokgede</t>
+  </si>
+  <si>
+    <t>Kota Bekasi</t>
+  </si>
+  <si>
+    <t>085716550091</t>
+  </si>
+  <si>
+    <t>alyamr1113@gmail.com</t>
+  </si>
+  <si>
+    <t>3275085104990015</t>
+  </si>
+  <si>
+    <t>SMAN 113 JAKARTA</t>
+  </si>
+  <si>
+    <t>SLAMET PURWANTO</t>
+  </si>
+  <si>
+    <t>IDA AIDA</t>
+  </si>
+  <si>
+    <t>LAINNYA</t>
+  </si>
+  <si>
+    <t>Jl. Nurrusa'adah no.39</t>
+  </si>
+  <si>
+    <t>085697180073</t>
   </si>
 </sst>
 </file>
@@ -1343,15 +1490,18 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1715,54 +1865,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW21"/>
+  <dimension ref="A1:BW24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
-    <col min="4" max="6" width="15.7265625" customWidth="1"/>
-    <col min="7" max="9" width="30.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" customWidth="1"/>
-    <col min="11" max="11" width="7.7265625" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
-    <col min="13" max="14" width="14.7265625" customWidth="1"/>
-    <col min="15" max="15" width="10.7265625" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" customWidth="1"/>
-    <col min="18" max="20" width="6.7265625" customWidth="1"/>
-    <col min="21" max="23" width="12.7265625" customWidth="1"/>
-    <col min="24" max="25" width="30.7265625" customWidth="1"/>
-    <col min="26" max="27" width="17.7265625" customWidth="1"/>
-    <col min="28" max="28" width="24.7265625" customWidth="1"/>
-    <col min="29" max="30" width="12.7265625" customWidth="1"/>
-    <col min="31" max="33" width="15.7265625" customWidth="1"/>
-    <col min="34" max="34" width="20.7265625" customWidth="1"/>
-    <col min="35" max="36" width="15.7265625" customWidth="1"/>
-    <col min="37" max="38" width="25.7265625" customWidth="1"/>
-    <col min="39" max="39" width="20.7265625" customWidth="1"/>
-    <col min="40" max="40" width="25.7265625" customWidth="1"/>
-    <col min="41" max="47" width="15.7265625" customWidth="1"/>
-    <col min="48" max="48" width="25.7265625" customWidth="1"/>
-    <col min="49" max="56" width="15.7265625" customWidth="1"/>
-    <col min="57" max="58" width="25.7265625" customWidth="1"/>
-    <col min="59" max="59" width="20.7265625" customWidth="1"/>
-    <col min="60" max="60" width="15.7265625" customWidth="1"/>
-    <col min="61" max="62" width="25.7265625" customWidth="1"/>
-    <col min="63" max="64" width="30.7265625" customWidth="1"/>
-    <col min="65" max="65" width="25.7265625" customWidth="1"/>
-    <col min="66" max="66" width="24.7265625" customWidth="1"/>
-    <col min="67" max="67" width="18.7265625" customWidth="1"/>
-    <col min="68" max="68" width="22.7265625" customWidth="1"/>
-    <col min="69" max="71" width="25.7265625" customWidth="1"/>
-    <col min="72" max="72" width="22.7265625" customWidth="1"/>
-    <col min="73" max="74" width="25.7265625" customWidth="1"/>
-    <col min="75" max="75" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="20" width="6.6640625" customWidth="1"/>
+    <col min="21" max="23" width="12.6640625" customWidth="1"/>
+    <col min="24" max="25" width="30.6640625" customWidth="1"/>
+    <col min="26" max="27" width="17.6640625" customWidth="1"/>
+    <col min="28" max="28" width="24.6640625" customWidth="1"/>
+    <col min="29" max="30" width="12.6640625" customWidth="1"/>
+    <col min="31" max="33" width="15.6640625" customWidth="1"/>
+    <col min="34" max="34" width="20.6640625" customWidth="1"/>
+    <col min="35" max="36" width="15.6640625" customWidth="1"/>
+    <col min="37" max="38" width="25.6640625" customWidth="1"/>
+    <col min="39" max="39" width="20.6640625" customWidth="1"/>
+    <col min="40" max="40" width="25.6640625" customWidth="1"/>
+    <col min="41" max="47" width="15.6640625" customWidth="1"/>
+    <col min="48" max="48" width="25.6640625" customWidth="1"/>
+    <col min="49" max="56" width="15.6640625" customWidth="1"/>
+    <col min="57" max="58" width="25.6640625" customWidth="1"/>
+    <col min="59" max="59" width="20.6640625" customWidth="1"/>
+    <col min="60" max="60" width="15.6640625" customWidth="1"/>
+    <col min="61" max="62" width="25.6640625" customWidth="1"/>
+    <col min="63" max="64" width="30.6640625" customWidth="1"/>
+    <col min="65" max="65" width="25.6640625" customWidth="1"/>
+    <col min="66" max="66" width="24.6640625" customWidth="1"/>
+    <col min="67" max="67" width="18.6640625" customWidth="1"/>
+    <col min="68" max="68" width="22.6640625" customWidth="1"/>
+    <col min="69" max="71" width="25.6640625" customWidth="1"/>
+    <col min="72" max="72" width="22.6640625" customWidth="1"/>
+    <col min="73" max="74" width="25.6640625" customWidth="1"/>
+    <col min="75" max="75" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" ht="13.8" x14ac:dyDescent="0.25">
       <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1924,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:75" ht="14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" ht="13.8" x14ac:dyDescent="0.25">
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1780,7 +1933,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:75" ht="13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5530,7 +5683,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>21318241</v>
+        <v>21318099</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>404</v>
@@ -5545,7 +5698,7 @@
         <v>80</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>82</v>
@@ -5557,52 +5710,52 @@
         <v>83</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>85</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>228</v>
+        <v>405</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>118</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="2">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="R20" s="2">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="S20" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="T20" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>409</v>
+        <v>148</v>
       </c>
       <c r="AC20" s="2" t="s">
         <v>410</v>
@@ -5614,28 +5767,28 @@
         <v>412</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="AJ20" s="2" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="AK20" s="2" t="s">
         <v>413</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>409</v>
+        <v>148</v>
       </c>
       <c r="AM20" s="2" t="s">
-        <v>241</v>
+        <v>101</v>
       </c>
       <c r="AN20" s="2" t="s">
         <v>82</v>
@@ -5692,22 +5845,22 @@
         <v>415</v>
       </c>
       <c r="BF20" s="2" t="s">
-        <v>104</v>
+        <v>416</v>
       </c>
       <c r="BG20" s="2" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="BH20" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BI20" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BJ20" s="2" t="s">
-        <v>418</v>
+        <v>108</v>
       </c>
       <c r="BK20" s="2" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="BL20" s="2" t="s">
         <v>419</v>
@@ -5716,7 +5869,7 @@
         <v>82</v>
       </c>
       <c r="BN20" s="2" t="s">
-        <v>409</v>
+        <v>100</v>
       </c>
       <c r="BO20" s="2" t="s">
         <v>420</v>
@@ -5728,22 +5881,22 @@
         <v>111</v>
       </c>
       <c r="BR20" s="2" t="s">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="BS20" s="2">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="BT20" s="2">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="BU20" s="2">
-        <v>7465080</v>
+        <v>3500000</v>
       </c>
       <c r="BV20" s="2">
         <v>0</v>
       </c>
       <c r="BW20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:75" x14ac:dyDescent="0.25">
@@ -5751,7 +5904,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>21318245</v>
+        <v>21318123</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>422</v>
@@ -5784,28 +5937,28 @@
         <v>85</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>423</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="R21" s="2">
-        <v>25</v>
+        <v>38.04</v>
       </c>
       <c r="S21" s="2">
-        <v>48</v>
+        <v>40.42</v>
       </c>
       <c r="T21" s="2">
-        <v>76</v>
+        <v>62.28</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -5814,49 +5967,49 @@
         <v>424</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF21" s="2" t="s">
         <v>82</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="AI21" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="AJ21" s="2" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>430</v>
+        <v>108</v>
       </c>
       <c r="AL21" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="AM21" s="2" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="AN21" s="2" t="s">
         <v>82</v>
@@ -5913,58 +6066,721 @@
         <v>432</v>
       </c>
       <c r="BF21" s="2" t="s">
-        <v>179</v>
+        <v>416</v>
       </c>
       <c r="BG21" s="2" t="s">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="BH21" s="2" t="s">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="BI21" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BJ21" s="2" t="s">
         <v>108</v>
       </c>
       <c r="BK21" s="2" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="BL21" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BM21" s="2" t="s">
         <v>82</v>
       </c>
       <c r="BN21" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="BO21" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="BP21" s="2" t="s">
-        <v>248</v>
+        <v>421</v>
       </c>
       <c r="BQ21" s="2" t="s">
         <v>111</v>
       </c>
       <c r="BR21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BS21" s="2">
+        <v>508</v>
+      </c>
+      <c r="BT21" s="2">
+        <v>50</v>
+      </c>
+      <c r="BU21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="BW21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21318241</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>2021</v>
+      </c>
+      <c r="R22" s="2">
+        <v>91</v>
+      </c>
+      <c r="S22" s="2">
+        <v>88</v>
+      </c>
+      <c r="T22" s="2">
+        <v>85</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD22" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BE22" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="BF22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG22" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BH22" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="BI22" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="BJ22" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="BK22" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BL22" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BM22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BO22" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="BP22" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="BQ22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="BS21" s="2">
+      <c r="BS22" s="2">
+        <v>18</v>
+      </c>
+      <c r="BT22" s="2">
+        <v>28</v>
+      </c>
+      <c r="BU22" s="2">
+        <v>7465080</v>
+      </c>
+      <c r="BV22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>21318245</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>2018</v>
+      </c>
+      <c r="R23" s="2">
+        <v>25</v>
+      </c>
+      <c r="S23" s="2">
+        <v>48</v>
+      </c>
+      <c r="T23" s="2">
+        <v>76</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD23" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="BE23" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="BF23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI23" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="BJ23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL23" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="BM23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BO23" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="BP23" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS23" s="2">
         <v>2668</v>
       </c>
-      <c r="BT21" s="2">
+      <c r="BT23" s="2">
         <v>95</v>
       </c>
-      <c r="BU21" s="2">
+      <c r="BU23" s="2">
         <v>1700000</v>
       </c>
-      <c r="BV21" s="2">
+      <c r="BV23" s="2">
         <v>0</v>
       </c>
-      <c r="BW21" s="2">
+      <c r="BW23" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>21310563</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>2017</v>
+      </c>
+      <c r="R24" s="2">
+        <v>70</v>
+      </c>
+      <c r="S24" s="2">
+        <v>68</v>
+      </c>
+      <c r="T24" s="2">
+        <v>66</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD24" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="BE24" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="BF24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI24" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="BJ24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK24" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="BL24" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="BM24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN24" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="BO24" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="BP24" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="BQ24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR24" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS24" s="2">
+        <v>130</v>
+      </c>
+      <c r="BT24" s="2">
+        <v>70</v>
+      </c>
+      <c r="BU24" s="2">
+        <v>17000000</v>
+      </c>
+      <c r="BV24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW24" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
